--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE335EF-078D-4A61-B6FE-AD03DFA6D328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095957E-7EB4-4B57-8E12-E42191006967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5083,9 +5083,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095957E-7EB4-4B57-8E12-E42191006967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59C047-6679-4550-94DE-129F26CF0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5085,7 +5085,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59C047-6679-4550-94DE-129F26CF0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCDC49-99F5-4A9F-BC73-5BC8B435028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -3300,18 +3300,18 @@
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="47.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="22" width="12.33203125" customWidth="1"/>
+    <col min="11" max="22" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
@@ -5085,12 +5085,12 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -5098,15 +5098,15 @@
     <col min="6" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="1:18" ht="72">
+    <row r="11" spans="1:18" ht="75">
       <c r="A11" s="52" t="s">
         <v>157</v>
       </c>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="36" hidden="1">
+    <row r="16" spans="1:18" ht="37.5" hidden="1">
       <c r="A16" s="52" t="s">
         <v>74</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="87" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="R20" s="53"/>
     </row>
-    <row r="21" spans="1:18" s="65" customFormat="1" ht="85.5">
+    <row r="21" spans="1:18" s="65" customFormat="1" ht="87.75">
       <c r="A21" s="44" t="s">
         <v>180</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="85.5" hidden="1">
+    <row r="22" spans="1:18" ht="87.75" hidden="1">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="65" customFormat="1" ht="103.5">
+    <row r="29" spans="1:18" s="65" customFormat="1" ht="106.5">
       <c r="A29" s="44" t="s">
         <v>207</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="85.5">
+    <row r="30" spans="1:18" ht="87.75">
       <c r="A30" s="44" t="s">
         <v>94</v>
       </c>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="R31" s="47"/>
     </row>
-    <row r="32" spans="1:18" ht="36">
+    <row r="32" spans="1:18" ht="37.5">
       <c r="A32" s="44" t="s">
         <v>187</v>
       </c>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:18" ht="54">
+    <row r="35" spans="1:18" ht="56.25">
       <c r="A35" s="44" t="s">
         <v>178</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="36">
+    <row r="36" spans="1:18" ht="37.5">
       <c r="A36" s="44" t="s">
         <v>196</v>
       </c>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCDC49-99F5-4A9F-BC73-5BC8B435028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B376D4-0C9B-492D-A10A-F52C463D6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B376D4-0C9B-492D-A10A-F52C463D6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706C409-40A2-4798-BCD8-3821A765F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1603,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,6 +1852,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5083,7 +5086,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6141,7 +6144,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706C409-40A2-4798-BCD8-3821A765F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB7F5A2-EBCC-439A-B01A-10BAAB18A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1603,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,9 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5088,7 +5085,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6144,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB7F5A2-EBCC-439A-B01A-10BAAB18A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5951A63-0C69-4AAD-BA6E-C045F25BAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5083,7 +5083,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5951A63-0C69-4AAD-BA6E-C045F25BAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06F4B4-DFC4-44DC-B51E-F7ED3EFDC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1430,7 +1433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1458,12 +1461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,9 +1735,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1766,7 +1760,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1808,10 +1802,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,7 +1829,7 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,6 +1846,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4320,14 +4317,14 @@
       <c r="C37" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="70">
         <v>44454</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="72"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
@@ -4368,14 +4365,14 @@
       <c r="C39" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="70">
         <v>44460</v>
       </c>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="72"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
@@ -4444,14 +4441,14 @@
       <c r="C42" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="70">
         <v>44510</v>
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="44"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
@@ -5083,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5166,7 +5163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="62" customFormat="1">
+    <row r="2" spans="1:18" s="61" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
@@ -5217,7 +5214,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="65" customFormat="1">
+    <row r="3" spans="1:18" s="64" customFormat="1">
       <c r="A3" s="44" t="s">
         <v>146</v>
       </c>
@@ -5232,7 +5229,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>203</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -5249,21 +5246,21 @@
         <f t="shared" si="2"/>
         <v>44562</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="85" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="42">
         <f t="shared" si="3"/>
         <v>44593</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="85" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="42">
         <f t="shared" si="4"/>
         <v>44621</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="85" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="42">
@@ -5282,17 +5279,17 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="53" t="str">
+      <c r="B4" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ミドリカワ　ノゾミ</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53">
         <v>44411</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5302,38 +5299,38 @@
       <c r="F4" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="55">
         <f t="shared" si="1"/>
         <v>44442</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="56">
+      <c r="H4" s="56"/>
+      <c r="I4" s="55">
         <f t="shared" si="2"/>
         <v>44472</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="67">
+      <c r="J4" s="57"/>
+      <c r="K4" s="66">
         <f t="shared" si="3"/>
         <v>44503</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="67">
+      <c r="L4" s="58"/>
+      <c r="M4" s="66">
         <f t="shared" si="4"/>
         <v>44533</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="67">
+      <c r="N4" s="58"/>
+      <c r="O4" s="66">
         <f t="shared" si="5"/>
         <v>44564</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="67">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="66">
         <f t="shared" si="6"/>
         <v>44595</v>
       </c>
-      <c r="R4" s="60"/>
-    </row>
-    <row r="5" spans="1:18" s="65" customFormat="1">
+      <c r="R4" s="59"/>
+    </row>
+    <row r="5" spans="1:18" s="64" customFormat="1">
       <c r="A5" s="44" t="s">
         <v>190</v>
       </c>
@@ -5362,29 +5359,29 @@
         <f t="shared" si="2"/>
         <v>44683</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81">
+      <c r="J5" s="79"/>
+      <c r="K5" s="80">
         <f t="shared" si="3"/>
         <v>44714</v>
       </c>
       <c r="L5" s="43"/>
-      <c r="M5" s="81">
+      <c r="M5" s="80">
         <f t="shared" si="4"/>
         <v>44744</v>
       </c>
       <c r="N5" s="40"/>
-      <c r="O5" s="81">
+      <c r="O5" s="80">
         <f t="shared" si="5"/>
         <v>44775</v>
       </c>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="81">
+      <c r="P5" s="81"/>
+      <c r="Q5" s="80">
         <f t="shared" si="6"/>
         <v>44806</v>
       </c>
-      <c r="R5" s="82"/>
-    </row>
-    <row r="6" spans="1:18" s="65" customFormat="1">
+      <c r="R5" s="81"/>
+    </row>
+    <row r="6" spans="1:18" s="64" customFormat="1">
       <c r="A6" s="44" t="s">
         <v>153</v>
       </c>
@@ -5418,28 +5415,28 @@
       <c r="J6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="80">
         <f t="shared" si="3"/>
         <v>44623</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="80">
         <f t="shared" si="4"/>
         <v>44654</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="81">
+      <c r="O6" s="80">
         <f t="shared" si="5"/>
         <v>44684</v>
       </c>
       <c r="P6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="80">
         <f t="shared" si="6"/>
         <v>44715</v>
       </c>
@@ -5476,7 +5473,7 @@
         <f t="shared" si="2"/>
         <v>44290</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
         <v>44320</v>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="R8" s="49"/>
     </row>
-    <row r="9" spans="1:18" s="65" customFormat="1">
+    <row r="9" spans="1:18" s="64" customFormat="1">
       <c r="A9" s="44" t="s">
         <v>55</v>
       </c>
@@ -5586,31 +5583,31 @@
         <f t="shared" si="2"/>
         <v>44596</v>
       </c>
-      <c r="J9" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="81">
+      <c r="J9" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="80">
         <f t="shared" si="3"/>
         <v>44624</v>
       </c>
-      <c r="L9" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="81">
+      <c r="L9" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="80">
         <f t="shared" si="4"/>
         <v>44655</v>
       </c>
-      <c r="N9" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="81">
+      <c r="N9" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="80">
         <f t="shared" si="5"/>
         <v>44685</v>
       </c>
       <c r="P9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="Q9" s="80">
         <f t="shared" si="6"/>
         <v>44716</v>
       </c>
@@ -5618,130 +5615,130 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:18" s="64" customFormat="1">
+      <c r="A10" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="38" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>フクヤマ　キヨ</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="39">
         <v>44777</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="50" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="42">
         <f t="shared" si="1"/>
         <v>44808</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="42">
         <f t="shared" si="2"/>
         <v>44838</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="42">
         <f t="shared" si="3"/>
         <v>44869</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="L10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="42">
         <f t="shared" si="4"/>
         <v>44899</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="42">
         <f t="shared" si="5"/>
         <v>44930</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="5">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="42">
         <f t="shared" si="6"/>
         <v>44961</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:18" ht="75">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="73" t="str">
+      <c r="B11" s="72" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ワタナベ　ミエ</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="73">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44536</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f t="shared" si="1"/>
         <v>44567</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68">
+      <c r="H11" s="68"/>
+      <c r="I11" s="67">
         <f t="shared" si="2"/>
         <v>44598</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="68">
+      <c r="J11" s="69"/>
+      <c r="K11" s="67">
         <f t="shared" si="3"/>
         <v>44626</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="68">
+      <c r="L11" s="68"/>
+      <c r="M11" s="67">
         <f t="shared" si="4"/>
         <v>44657</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="68">
+      <c r="N11" s="68"/>
+      <c r="O11" s="67">
         <f t="shared" si="5"/>
         <v>44687</v>
       </c>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="68">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="67">
         <f t="shared" si="6"/>
         <v>44718</v>
       </c>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="62" customFormat="1" hidden="1">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:18" s="61" customFormat="1" hidden="1">
+      <c r="A12" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="53" t="str">
+      <c r="B12" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>イタガキ　リョウヤ</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44295</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5751,36 +5748,36 @@
       <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="55">
         <f t="shared" si="1"/>
         <v>44325</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56">
+      <c r="H12" s="55"/>
+      <c r="I12" s="55">
         <f t="shared" si="2"/>
         <v>44356</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56">
+      <c r="J12" s="57"/>
+      <c r="K12" s="55">
         <f t="shared" si="3"/>
         <v>44386</v>
       </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56">
+      <c r="L12" s="54"/>
+      <c r="M12" s="55">
         <f t="shared" si="4"/>
         <v>44417</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56">
+      <c r="N12" s="54"/>
+      <c r="O12" s="55">
         <f t="shared" si="5"/>
         <v>44448</v>
       </c>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55">
         <f t="shared" si="6"/>
         <v>44478</v>
       </c>
-      <c r="R12" s="53"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="13" t="s">
@@ -5833,7 +5830,7 @@
       </c>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="1:18" s="65" customFormat="1">
+    <row r="14" spans="1:18" s="64" customFormat="1">
       <c r="A14" s="44" t="s">
         <v>209</v>
       </c>
@@ -5911,7 +5908,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="40"/>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="88" t="s">
         <v>216</v>
       </c>
       <c r="G15" s="5">
@@ -5952,118 +5949,118 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:18" ht="37.5" hidden="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="53" t="str">
+      <c r="B16" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>クラモト　ユウキ</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="53">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44297</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="77">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <f t="shared" si="1"/>
         <v>44327</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56">
+      <c r="H16" s="55"/>
+      <c r="I16" s="55">
         <f t="shared" si="2"/>
         <v>44358</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56">
+      <c r="J16" s="57"/>
+      <c r="K16" s="55">
         <f t="shared" si="3"/>
         <v>44388</v>
       </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56">
+      <c r="L16" s="54"/>
+      <c r="M16" s="55">
         <f t="shared" si="4"/>
         <v>44419</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56">
+      <c r="N16" s="54"/>
+      <c r="O16" s="55">
         <f t="shared" si="5"/>
         <v>44450</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56">
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55">
         <f t="shared" si="6"/>
         <v>44480</v>
       </c>
-      <c r="R16" s="53"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="1:18" hidden="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>タニショウ　シマ</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44271</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="77">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="55">
         <f t="shared" si="1"/>
         <v>44302</v>
       </c>
-      <c r="H17" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="56">
+      <c r="H17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="55">
         <f t="shared" si="2"/>
         <v>44332</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56">
+      <c r="J17" s="57"/>
+      <c r="K17" s="55">
         <f t="shared" si="3"/>
         <v>44363</v>
       </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56">
+      <c r="L17" s="54"/>
+      <c r="M17" s="55">
         <f t="shared" si="4"/>
         <v>44393</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56">
+      <c r="N17" s="54"/>
+      <c r="O17" s="55">
         <f t="shared" si="5"/>
         <v>44424</v>
       </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56">
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55">
         <f t="shared" si="6"/>
         <v>44455</v>
       </c>
-      <c r="R17" s="53"/>
-    </row>
-    <row r="18" spans="1:18" s="65" customFormat="1">
+      <c r="R17" s="52"/>
+    </row>
+    <row r="18" spans="1:18" s="64" customFormat="1">
       <c r="A18" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="51" t="str">
+      <c r="B18" s="50" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ナベクラ　コウタ</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="65" customFormat="1">
+    <row r="19" spans="1:18" s="64" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
@@ -6184,17 +6181,17 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" hidden="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="53" t="str">
+      <c r="B20" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ミヤギ　サホ</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="53">
         <v>44303</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -6204,48 +6201,48 @@
       <c r="F20" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="55">
         <f t="shared" si="1"/>
         <v>44333</v>
       </c>
-      <c r="H20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="56">
+      <c r="H20" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="55">
         <f t="shared" si="2"/>
         <v>44364</v>
       </c>
-      <c r="J20" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="56">
+      <c r="J20" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="55">
         <f t="shared" si="3"/>
         <v>44394</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="55">
         <f t="shared" si="4"/>
         <v>44425</v>
       </c>
       <c r="N20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="55">
         <f t="shared" si="5"/>
         <v>44456</v>
       </c>
       <c r="P20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="55">
         <f t="shared" si="6"/>
         <v>44486</v>
       </c>
-      <c r="R20" s="53"/>
-    </row>
-    <row r="21" spans="1:18" s="65" customFormat="1" ht="87.75">
+      <c r="R20" s="52"/>
+    </row>
+    <row r="21" spans="1:18" s="64" customFormat="1" ht="87.75">
       <c r="A21" s="44" t="s">
         <v>180</v>
       </c>
@@ -6361,7 +6358,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" s="65" customFormat="1">
+    <row r="23" spans="1:18" s="64" customFormat="1">
       <c r="A23" s="44" t="s">
         <v>184</v>
       </c>
@@ -6424,11 +6421,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="65" customFormat="1">
+    <row r="24" spans="1:18" s="64" customFormat="1">
       <c r="A24" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="51" t="str">
+      <c r="B24" s="50" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>サエキ　ダイスケ</v>
       </c>
@@ -6549,11 +6546,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="64" customFormat="1">
+    <row r="26" spans="1:18" s="63" customFormat="1">
       <c r="A26" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="51" t="str">
+      <c r="B26" s="50" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>イケダ　ヨウスケ</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="65" customFormat="1">
+    <row r="27" spans="1:18" s="64" customFormat="1">
       <c r="A27" s="44" t="s">
         <v>192</v>
       </c>
@@ -6623,14 +6620,14 @@
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44637</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="54">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="83" t="s">
         <v>195</v>
       </c>
       <c r="G27" s="5">
@@ -6664,7 +6661,7 @@
       </c>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" s="65" customFormat="1">
+    <row r="28" spans="1:18" s="64" customFormat="1">
       <c r="A28" s="44" t="s">
         <v>211</v>
       </c>
@@ -6727,7 +6724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="65" customFormat="1" ht="106.5">
+    <row r="29" spans="1:18" s="64" customFormat="1" ht="106.5">
       <c r="A29" s="44" t="s">
         <v>207</v>
       </c>
@@ -6746,7 +6743,7 @@
       <c r="E29" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="91" t="s">
         <v>218</v>
       </c>
       <c r="G29" s="42">
@@ -6845,19 +6842,19 @@
       </c>
       <c r="R30" s="38"/>
     </row>
-    <row r="31" spans="1:18" s="65" customFormat="1">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:18" s="64" customFormat="1">
+      <c r="A31" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="53" t="str">
+      <c r="B31" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ナカタニ　セイカ</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="53">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44553</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="54">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -6865,34 +6862,34 @@
       <c r="F31" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="55">
         <f t="shared" si="1"/>
         <v>44584</v>
       </c>
-      <c r="H31" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="56">
+      <c r="H31" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="55">
         <f t="shared" si="2"/>
         <v>44615</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="56">
+      <c r="J31" s="56"/>
+      <c r="K31" s="55">
         <f t="shared" si="3"/>
         <v>44643</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="56">
+      <c r="L31" s="56"/>
+      <c r="M31" s="55">
         <f t="shared" si="4"/>
         <v>44674</v>
       </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="56">
+      <c r="N31" s="56"/>
+      <c r="O31" s="55">
         <f t="shared" si="5"/>
         <v>44704</v>
       </c>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="56">
+      <c r="P31" s="56"/>
+      <c r="Q31" s="55">
         <f t="shared" si="6"/>
         <v>44735</v>
       </c>
@@ -6915,7 +6912,7 @@
       <c r="E32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="87" t="s">
         <v>202</v>
       </c>
       <c r="G32" s="42">
@@ -6962,17 +6959,17 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="52" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>タテイワ　ヒロキ</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="53">
         <v>44341</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="54">
         <f>DAY(C33)</f>
         <v>25</v>
       </c>
@@ -6982,42 +6979,42 @@
       <c r="F33" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="55">
         <f t="shared" si="1"/>
         <v>44372</v>
       </c>
-      <c r="H33" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="56">
+      <c r="H33" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="55">
         <f t="shared" si="2"/>
         <v>44402</v>
       </c>
-      <c r="J33" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="56">
+      <c r="J33" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="55">
         <f t="shared" si="3"/>
         <v>44433</v>
       </c>
       <c r="L33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="56">
+      <c r="M33" s="55">
         <f t="shared" si="4"/>
         <v>44464</v>
       </c>
       <c r="N33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="55">
         <f t="shared" si="5"/>
         <v>44494</v>
       </c>
       <c r="P33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="56">
+      <c r="Q33" s="55">
         <f t="shared" si="6"/>
         <v>44525</v>
       </c>
@@ -7094,7 +7091,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="41"/>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="87" t="s">
         <v>200</v>
       </c>
       <c r="G35" s="42">
@@ -7152,14 +7149,14 @@
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[契約日]],4,FALSE)</f>
         <v>44649</v>
       </c>
-      <c r="D36" s="78">
+      <c r="D36" s="77">
         <f>DAY(C36)</f>
         <v>29</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="78" t="s">
         <v>199</v>
       </c>
       <c r="G36" s="5">
@@ -7209,8 +7206,8 @@
         <f>DAY(C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="5">
         <f t="shared" si="1"/>
         <v>31</v>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06F4B4-DFC4-44DC-B51E-F7ED3EFDC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DB560-7596-4D83-9264-A70A2C08776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5082,7 +5082,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5780,17 +5780,17 @@
       <c r="R12" s="52"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="38" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>ヌクイ　チナツ</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="39">
         <v>44871</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="40">
         <v>7</v>
       </c>
       <c r="E13" s="2"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DB560-7596-4D83-9264-A70A2C08776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B77E03-E31D-4B20-9468-CC8653D89639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6138,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B77E03-E31D-4B20-9468-CC8653D89639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0173FEB-CC61-4AF3-84E6-FFC1F19FC3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,6 +1848,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5080,7 +5083,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6138,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0173FEB-CC61-4AF3-84E6-FFC1F19FC3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94ABC7-4100-4043-8545-EBC7F256A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,9 +1848,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5083,7 +5080,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6141,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94ABC7-4100-4043-8545-EBC7F256A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A808E-37AE-4137-A497-766BF32A1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -5080,7 +5080,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A808E-37AE-4137-A497-766BF32A1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6D690-9F20-412D-9828-3AF85F84CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5080,7 +5080,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6D690-9F20-412D-9828-3AF85F84CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF30A1D-8D06-49BB-BD89-9891EAD70B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -5082,7 +5082,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF30A1D-8D06-49BB-BD89-9891EAD70B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE44C82-6160-4278-86ED-289F09F57E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE44C82-6160-4278-86ED-289F09F57E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90771889-B914-4CCE-A18B-ADDE7038F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6138,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90771889-B914-4CCE-A18B-ADDE7038F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F83D6-18DE-4DCD-A955-7E3F1B226533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,6 +1848,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5082,7 +5085,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6138,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F83D6-18DE-4DCD-A955-7E3F1B226533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1DDC6C-6F83-4D2D-9282-EFE5D568D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,9 +1848,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5083,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6141,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1DDC6C-6F83-4D2D-9282-EFE5D568D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B537642E-08A5-48EE-9974-C974756CBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5082,7 +5082,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B537642E-08A5-48EE-9974-C974756CBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB7DEA0-3A6C-475E-8DB5-3C0EAB08280E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB7DEA0-3A6C-475E-8DB5-3C0EAB08280E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD6B77-4619-42C3-87CE-9230A9F17478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD6B77-4619-42C3-87CE-9230A9F17478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26D5EF-EE1D-4E52-ADC6-B3B90DAAAFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5080,9 +5080,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6138,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26D5EF-EE1D-4E52-ADC6-B3B90DAAAFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E74BAB-83F2-453F-A6A0-7184789DC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,6 +1848,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6138,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E74BAB-83F2-453F-A6A0-7184789DC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7433A573-EBB3-4FB3-8244-3CC26876DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,9 +1848,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5083,7 +5080,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6141,7 +6138,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7433A573-EBB3-4FB3-8244-3CC26876DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C37081-207E-46DD-8AA9-E44EED37CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -3297,18 +3297,18 @@
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="6" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="22" width="12.375" customWidth="1"/>
+    <col min="11" max="22" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
@@ -5085,9 +5085,9 @@
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -5095,15 +5095,15 @@
     <col min="6" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="R10" s="43"/>
     </row>
-    <row r="11" spans="1:18" ht="75">
+    <row r="11" spans="1:18" ht="72">
       <c r="A11" s="51" t="s">
         <v>157</v>
       </c>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="37.5" hidden="1">
+    <row r="16" spans="1:18" ht="36" hidden="1">
       <c r="A16" s="51" t="s">
         <v>74</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="R20" s="52"/>
     </row>
-    <row r="21" spans="1:18" s="64" customFormat="1" ht="87.75">
+    <row r="21" spans="1:18" s="64" customFormat="1" ht="85.5">
       <c r="A21" s="44" t="s">
         <v>180</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="87.75" hidden="1">
+    <row r="22" spans="1:18" ht="85.5" hidden="1">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="64" customFormat="1" ht="106.5">
+    <row r="29" spans="1:18" s="64" customFormat="1" ht="103.5">
       <c r="A29" s="44" t="s">
         <v>207</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="87.75">
+    <row r="30" spans="1:18" ht="85.5">
       <c r="A30" s="44" t="s">
         <v>94</v>
       </c>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="R31" s="47"/>
     </row>
-    <row r="32" spans="1:18" ht="37.5">
+    <row r="32" spans="1:18" ht="36">
       <c r="A32" s="44" t="s">
         <v>187</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:18" ht="56.25">
+    <row r="35" spans="1:18" ht="54">
       <c r="A35" s="44" t="s">
         <v>178</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="37.5">
+    <row r="36" spans="1:18" ht="36">
       <c r="A36" s="44" t="s">
         <v>196</v>
       </c>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C37081-207E-46DD-8AA9-E44EED37CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C4809-8EF8-4B2E-A376-3AD71736CFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,6 +1848,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6138,7 +6141,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">
@@ -6724,7 +6727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="64" customFormat="1" ht="103.5">
+    <row r="29" spans="1:18" s="64" customFormat="1" ht="121.5">
       <c r="A29" s="44" t="s">
         <v>207</v>
       </c>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C4809-8EF8-4B2E-A376-3AD71736CFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E4012A-7F72-45BF-87E6-FBAD0C0ADC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,6 @@
     <definedName name="管理者名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1600,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1848,9 +1835,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1858,7 +1842,15 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{E76D6E57-E975-4F6E-B136-3A1DD047B03D}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3040,52 +3032,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15FD53CA-D731-49F2-8DE0-D36A311613CF}" name="名前リスト" displayName="名前リスト" ref="A1:J61" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15FD53CA-D731-49F2-8DE0-D36A311613CF}" name="名前リスト" displayName="名前リスト" ref="A1:J61" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="A1:J61" xr:uid="{824E64B5-AC6D-4B2D-B246-D8A228B31402}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:J29">
     <sortCondition ref="D1:D29"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C59E891C-FC61-4460-9D9C-DA5458048A39}" name="管理番号" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C56F7BC1-8C6B-43D2-BD5D-5C4E177237E8}" name="氏名" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{4A94D906-3617-4DFA-A39F-C600D2063238}" name="紹介者番号" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D375840C-81D8-4227-B3BC-52DD084FC168}" name="契約日" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6032D145-8CB8-44AB-BE6F-45C3206AF890}" name="契約書承認" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{442B21FE-AB2D-40F1-9ECC-EDD04D477459}" name="square決裁" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{186B07C6-60AA-4025-B4B3-286846B1199C}" name="初期費用支払い" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{B8DC2F95-48E2-4F0A-B100-F38740426669}" name="銀行振込" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{AD7220ED-8337-4E79-841B-32BBDACCF40A}" name="備考" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7316EBC3-22C3-4D64-8E0D-52AAB95240F6}" name="毎月バック" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{C59E891C-FC61-4460-9D9C-DA5458048A39}" name="管理番号" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{C56F7BC1-8C6B-43D2-BD5D-5C4E177237E8}" name="氏名" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{4A94D906-3617-4DFA-A39F-C600D2063238}" name="紹介者番号" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D375840C-81D8-4227-B3BC-52DD084FC168}" name="契約日" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{6032D145-8CB8-44AB-BE6F-45C3206AF890}" name="契約書承認" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{442B21FE-AB2D-40F1-9ECC-EDD04D477459}" name="square決裁" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{186B07C6-60AA-4025-B4B3-286846B1199C}" name="初期費用支払い" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{B8DC2F95-48E2-4F0A-B100-F38740426669}" name="銀行振込" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{AD7220ED-8337-4E79-841B-32BBDACCF40A}" name="備考" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7316EBC3-22C3-4D64-8E0D-52AAB95240F6}" name="毎月バック" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC02CE6B-D547-4392-8220-BBB6B0D25201}" name="リマインド表" displayName="リマインド表" ref="A1:R37" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:R37" xr:uid="{B4E540B4-727F-4993-8D7E-D00C4C96F5F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC02CE6B-D547-4392-8220-BBB6B0D25201}" name="リマインド表" displayName="リマインド表" ref="A1:R37" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:R37" xr:uid="{B4E540B4-727F-4993-8D7E-D00C4C96F5F7}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
     <sortCondition ref="D1:D36"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A530E669-FE56-4EEC-B4A6-3230BAE5DF45}" name="管理番号" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{EE786227-BF3B-44C8-ADCD-E60B861333FD}" name="氏名" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{904E9C75-EAE6-44B8-BDE8-D158BCDD6472}" name="決済日" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8582AD16-707E-4E61-BCE0-C53D0D681510}" name="支払日" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{52BDB00E-C469-48E8-BEAB-899B8BEFE834}" name="書き留め" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3768C3A7-422A-44C4-9CF7-B00B53DD67CE}" name="ライン名" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C2D68B79-A116-4717-9880-9E3FA0E8B669}" name="支払月1" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{54E36C55-44A7-4C82-BBEC-C5A7689A1D26}" name="支払確認1" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{E1185923-FF2F-4BF7-A692-999AEBB84D33}" name="支払月2" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2157AC9F-CDAB-406F-BCAB-FC2071533166}" name="支払確認2" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{12ED0035-29F1-4730-8678-95A502954FE4}" name="支払月3" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{E8391761-B714-44D0-AC68-6B3DB7661FCB}" name="支払確認3" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00B2F99D-6F6A-40A2-A41F-81EB9BB344B2}" name="支払月4" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{9F38D9C6-FA6D-4E89-8530-0A215FF4B35B}" name="支払確認4" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{9F1437EB-8308-4F3B-ADCE-3A5568ACC574}" name="支払月5" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{EBADC9AB-1F90-47A8-B017-669AD2F8EDC8}" name="支払確認5" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{2FE44937-C353-49BF-A959-AD9D31FF232F}" name="支払月6" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{39718AD8-5749-43FA-8ACB-EDB7F259869E}" name="支払確認6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A530E669-FE56-4EEC-B4A6-3230BAE5DF45}" name="管理番号" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EE786227-BF3B-44C8-ADCD-E60B861333FD}" name="氏名" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{904E9C75-EAE6-44B8-BDE8-D158BCDD6472}" name="決済日" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8582AD16-707E-4E61-BCE0-C53D0D681510}" name="支払日" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{52BDB00E-C469-48E8-BEAB-899B8BEFE834}" name="書き留め" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3768C3A7-422A-44C4-9CF7-B00B53DD67CE}" name="ライン名" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{C2D68B79-A116-4717-9880-9E3FA0E8B669}" name="支払月1" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{54E36C55-44A7-4C82-BBEC-C5A7689A1D26}" name="支払確認1" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E1185923-FF2F-4BF7-A692-999AEBB84D33}" name="支払月2" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{2157AC9F-CDAB-406F-BCAB-FC2071533166}" name="支払確認2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{12ED0035-29F1-4730-8678-95A502954FE4}" name="支払月3" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{E8391761-B714-44D0-AC68-6B3DB7661FCB}" name="支払確認3" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00B2F99D-6F6A-40A2-A41F-81EB9BB344B2}" name="支払月4" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{9F38D9C6-FA6D-4E89-8530-0A215FF4B35B}" name="支払確認4" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{9F1437EB-8308-4F3B-ADCE-3A5568ACC574}" name="支払月5" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{EBADC9AB-1F90-47A8-B017-669AD2F8EDC8}" name="支払確認5" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{2FE44937-C353-49BF-A959-AD9D31FF232F}" name="支払月6" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{39718AD8-5749-43FA-8ACB-EDB7F259869E}" name="支払確認6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5083,9 +5079,9 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5217,7 +5213,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="64" customFormat="1">
+    <row r="3" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A3" s="44" t="s">
         <v>146</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="51" t="s">
         <v>122</v>
       </c>
@@ -5333,7 +5329,7 @@
       </c>
       <c r="R4" s="59"/>
     </row>
-    <row r="5" spans="1:18" s="64" customFormat="1">
+    <row r="5" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A5" s="44" t="s">
         <v>190</v>
       </c>
@@ -5384,7 +5380,7 @@
       </c>
       <c r="R5" s="81"/>
     </row>
-    <row r="6" spans="1:18" s="64" customFormat="1">
+    <row r="6" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A6" s="44" t="s">
         <v>153</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="1:18" hidden="1">
+    <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -5556,7 +5552,7 @@
       </c>
       <c r="R8" s="49"/>
     </row>
-    <row r="9" spans="1:18" s="64" customFormat="1">
+    <row r="9" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A9" s="44" t="s">
         <v>55</v>
       </c>
@@ -5618,7 +5614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="64" customFormat="1">
+    <row r="10" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A10" s="44" t="s">
         <v>171</v>
       </c>
@@ -5676,7 +5672,7 @@
       </c>
       <c r="R10" s="43"/>
     </row>
-    <row r="11" spans="1:18" ht="72">
+    <row r="11" spans="1:18" ht="72" hidden="1">
       <c r="A11" s="51" t="s">
         <v>157</v>
       </c>
@@ -5782,7 +5778,7 @@
       </c>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="44" t="s">
         <v>204</v>
       </c>
@@ -5833,7 +5829,7 @@
       </c>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="1:18" s="64" customFormat="1">
+    <row r="14" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A14" s="44" t="s">
         <v>209</v>
       </c>
@@ -5894,7 +5890,7 @@
       </c>
       <c r="R14" s="40"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="44" t="s">
         <v>213</v>
       </c>
@@ -6059,7 +6055,7 @@
       </c>
       <c r="R17" s="52"/>
     </row>
-    <row r="18" spans="1:18" s="64" customFormat="1">
+    <row r="18" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A18" s="37" t="s">
         <v>131</v>
       </c>
@@ -6141,7 +6137,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">
@@ -6245,7 +6241,7 @@
       </c>
       <c r="R20" s="52"/>
     </row>
-    <row r="21" spans="1:18" s="64" customFormat="1" ht="85.5">
+    <row r="21" spans="1:18" s="64" customFormat="1" ht="85.5" hidden="1">
       <c r="A21" s="44" t="s">
         <v>180</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="85.5" hidden="1">
+    <row r="22" spans="1:18" ht="85.5">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -6361,7 +6357,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" s="64" customFormat="1">
+    <row r="23" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A23" s="44" t="s">
         <v>184</v>
       </c>
@@ -6424,7 +6420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="64" customFormat="1">
+    <row r="24" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A24" s="37" t="s">
         <v>134</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="44" t="s">
         <v>168</v>
       </c>
@@ -6549,7 +6545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="63" customFormat="1">
+    <row r="26" spans="1:18" s="63" customFormat="1" hidden="1">
       <c r="A26" s="37" t="s">
         <v>139</v>
       </c>
@@ -6611,7 +6607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="64" customFormat="1">
+    <row r="27" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A27" s="44" t="s">
         <v>192</v>
       </c>
@@ -6664,7 +6660,7 @@
       </c>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" s="64" customFormat="1">
+    <row r="28" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A28" s="44" t="s">
         <v>211</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="64" customFormat="1" ht="121.5">
+    <row r="29" spans="1:18" s="64" customFormat="1" ht="121.5" hidden="1">
       <c r="A29" s="44" t="s">
         <v>207</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="85.5">
+    <row r="30" spans="1:18" ht="85.5" hidden="1">
       <c r="A30" s="44" t="s">
         <v>94</v>
       </c>
@@ -6845,7 +6841,7 @@
       </c>
       <c r="R30" s="38"/>
     </row>
-    <row r="31" spans="1:18" s="64" customFormat="1">
+    <row r="31" spans="1:18" s="64" customFormat="1" hidden="1">
       <c r="A31" s="51" t="s">
         <v>165</v>
       </c>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="R31" s="47"/>
     </row>
-    <row r="32" spans="1:18" ht="36">
+    <row r="32" spans="1:18" ht="36" hidden="1">
       <c r="A32" s="44" t="s">
         <v>187</v>
       </c>
@@ -6961,7 +6957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="51" t="s">
         <v>87</v>
       </c>
@@ -7077,7 +7073,7 @@
       </c>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:18" ht="54">
+    <row r="35" spans="1:18" ht="54" hidden="1">
       <c r="A35" s="44" t="s">
         <v>178</v>
       </c>
@@ -7140,7 +7136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="36">
+    <row r="36" spans="1:18" ht="36" hidden="1">
       <c r="A36" s="44" t="s">
         <v>196</v>
       </c>

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E4012A-7F72-45BF-87E6-FBAD0C0ADC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3C674-3F48-480D-8F16-1159393B37EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,14 +1844,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2493,6 +2485,14 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3057,31 +3057,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC02CE6B-D547-4392-8220-BBB6B0D25201}" name="リマインド表" displayName="リマインド表" ref="A1:R37" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:R37" xr:uid="{B4E540B4-727F-4993-8D7E-D00C4C96F5F7}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="18"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
     <sortCondition ref="D1:D36"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A530E669-FE56-4EEC-B4A6-3230BAE5DF45}" name="管理番号" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{EE786227-BF3B-44C8-ADCD-E60B861333FD}" name="氏名" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{904E9C75-EAE6-44B8-BDE8-D158BCDD6472}" name="決済日" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8582AD16-707E-4E61-BCE0-C53D0D681510}" name="支払日" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{52BDB00E-C469-48E8-BEAB-899B8BEFE834}" name="書き留め" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3768C3A7-422A-44C4-9CF7-B00B53DD67CE}" name="ライン名" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{C2D68B79-A116-4717-9880-9E3FA0E8B669}" name="支払月1" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{54E36C55-44A7-4C82-BBEC-C5A7689A1D26}" name="支払確認1" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{E1185923-FF2F-4BF7-A692-999AEBB84D33}" name="支払月2" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2157AC9F-CDAB-406F-BCAB-FC2071533166}" name="支払確認2" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{12ED0035-29F1-4730-8678-95A502954FE4}" name="支払月3" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{E8391761-B714-44D0-AC68-6B3DB7661FCB}" name="支払確認3" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00B2F99D-6F6A-40A2-A41F-81EB9BB344B2}" name="支払月4" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{9F38D9C6-FA6D-4E89-8530-0A215FF4B35B}" name="支払確認4" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{9F1437EB-8308-4F3B-ADCE-3A5568ACC574}" name="支払月5" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{EBADC9AB-1F90-47A8-B017-669AD2F8EDC8}" name="支払確認5" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{2FE44937-C353-49BF-A959-AD9D31FF232F}" name="支払月6" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{39718AD8-5749-43FA-8ACB-EDB7F259869E}" name="支払確認6" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A530E669-FE56-4EEC-B4A6-3230BAE5DF45}" name="管理番号" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE786227-BF3B-44C8-ADCD-E60B861333FD}" name="氏名" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{904E9C75-EAE6-44B8-BDE8-D158BCDD6472}" name="決済日" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8582AD16-707E-4E61-BCE0-C53D0D681510}" name="支払日" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{52BDB00E-C469-48E8-BEAB-899B8BEFE834}" name="書き留め" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3768C3A7-422A-44C4-9CF7-B00B53DD67CE}" name="ライン名" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C2D68B79-A116-4717-9880-9E3FA0E8B669}" name="支払月1" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{54E36C55-44A7-4C82-BBEC-C5A7689A1D26}" name="支払確認1" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{E1185923-FF2F-4BF7-A692-999AEBB84D33}" name="支払月2" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{2157AC9F-CDAB-406F-BCAB-FC2071533166}" name="支払確認2" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{12ED0035-29F1-4730-8678-95A502954FE4}" name="支払月3" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{E8391761-B714-44D0-AC68-6B3DB7661FCB}" name="支払確認3" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00B2F99D-6F6A-40A2-A41F-81EB9BB344B2}" name="支払月4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{9F38D9C6-FA6D-4E89-8530-0A215FF4B35B}" name="支払確認4" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{9F1437EB-8308-4F3B-ADCE-3A5568ACC574}" name="支払月5" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{EBADC9AB-1F90-47A8-B017-669AD2F8EDC8}" name="支払確認5" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{2FE44937-C353-49BF-A959-AD9D31FF232F}" name="支払月6" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{39718AD8-5749-43FA-8ACB-EDB7F259869E}" name="支払確認6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5081,7 +5081,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6317,7 +6317,7 @@
         <v>44336</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>DAY(C22)</f>
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3C674-3F48-480D-8F16-1159393B37EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632859B-E053-49F5-8268-AB51B3033029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5081,7 +5081,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6137,7 +6137,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632859B-E053-49F5-8268-AB51B3033029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BD5FD-062A-41A9-9A47-A955CA6EA64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1835,6 +1835,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6137,7 +6140,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">

--- a/メルレ/メルレ管理簿 _新契約書.xlsx
+++ b/メルレ/メルレ管理簿 _新契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BD5FD-062A-41A9-9A47-A955CA6EA64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9369AF85-7E56-4A36-AC7A-474DC6F858F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1835,9 +1835,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6140,7 +6137,7 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5">
